--- a/case01_extract_cn_airport/cn_airline.xlsx
+++ b/case01_extract_cn_airport/cn_airline.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhouweifile\Github-Project\VeDa-Airport-Location\case01_extract_cn_airport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C474986A-A8E4-46B0-ACAC-197A345E983B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF3E5D7-98D1-430B-9E33-F815B60F780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="30" windowWidth="28755" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airline CN raw" sheetId="4" r:id="rId1"/>
     <sheet name="airline CN" sheetId="5" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'airline CN'!$A$1:$L$73</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="437">
   <si>
     <t>IATA</t>
   </si>
@@ -623,9 +626,6 @@
   </si>
   <si>
     <t>Suparna Airlines</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Beijing Daxing International Airport</t>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DBC132-4323-46A7-A08A-B106C22AF311}">
   <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,26 +1777,26 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -1813,8 +1813,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DADA14-99AB-4035-A091-FDCAA571E155}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,19 +1836,19 @@
   <sheetData>
     <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>222</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>223</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>0</v>
@@ -1854,19 +1857,19 @@
         <v>1</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>225</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1874,13 +1877,13 @@
         <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1895,10 +1898,10 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1906,13 +1909,13 @@
         <v>123</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1924,10 +1927,10 @@
         <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>122</v>
@@ -1938,13 +1941,13 @@
         <v>123</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1959,10 +1962,10 @@
         <v>52</v>
       </c>
       <c r="I4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1970,13 +1973,13 @@
         <v>123</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1991,10 +1994,10 @@
         <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,13 +2005,13 @@
         <v>123</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
         <v>236</v>
-      </c>
-      <c r="D6" t="s">
-        <v>237</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2023,10 +2026,10 @@
         <v>68</v>
       </c>
       <c r="I6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2034,13 +2037,13 @@
         <v>123</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
         <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -2055,7 +2058,7 @@
         <v>136</v>
       </c>
       <c r="I7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>9</v>
@@ -2066,13 +2069,13 @@
         <v>123</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
         <v>241</v>
-      </c>
-      <c r="D8" t="s">
-        <v>242</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>77</v>
@@ -2081,13 +2084,13 @@
         <v>61</v>
       </c>
       <c r="H8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="I8" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2095,13 +2098,13 @@
         <v>123</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
         <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -2116,10 +2119,10 @@
         <v>181</v>
       </c>
       <c r="I9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2127,13 +2130,13 @@
         <v>123</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" t="s">
         <v>248</v>
-      </c>
-      <c r="D10" t="s">
-        <v>249</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -2148,10 +2151,10 @@
         <v>169</v>
       </c>
       <c r="I10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2159,13 +2162,13 @@
         <v>123</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
         <v>252</v>
-      </c>
-      <c r="D11" t="s">
-        <v>253</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2180,10 +2183,10 @@
         <v>183</v>
       </c>
       <c r="I11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2191,13 +2194,13 @@
         <v>123</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" t="s">
         <v>254</v>
-      </c>
-      <c r="D12" t="s">
-        <v>255</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -2206,13 +2209,13 @@
         <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" t="s">
         <v>256</v>
       </c>
-      <c r="H12" t="s">
-        <v>257</v>
-      </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>150</v>
@@ -2223,28 +2226,28 @@
         <v>123</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>262</v>
-      </c>
       <c r="I13" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
@@ -2256,13 +2259,13 @@
         <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -2277,10 +2280,10 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>9</v>
@@ -2291,13 +2294,13 @@
         <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -2312,13 +2315,13 @@
         <v>41</v>
       </c>
       <c r="I15" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2326,13 +2329,13 @@
         <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" t="s">
         <v>281</v>
-      </c>
-      <c r="D16" t="s">
-        <v>282</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -2347,13 +2350,13 @@
         <v>191</v>
       </c>
       <c r="I16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2361,13 +2364,13 @@
         <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" t="s">
         <v>285</v>
-      </c>
-      <c r="D17" t="s">
-        <v>286</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -2376,16 +2379,16 @@
         <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" t="s">
         <v>287</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="I17" t="s">
-        <v>206</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>9</v>
@@ -2396,13 +2399,13 @@
         <v>123</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -2417,13 +2420,13 @@
         <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2431,31 +2434,31 @@
         <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" t="s">
         <v>292</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" t="s">
         <v>295</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="I19" t="s">
-        <v>213</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>150</v>
@@ -2466,13 +2469,13 @@
         <v>123</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C20" t="s">
         <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -2487,13 +2490,13 @@
         <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2501,19 +2504,19 @@
         <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
         <v>156</v>
       </c>
       <c r="D21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>155</v>
@@ -2522,10 +2525,10 @@
         <v>157</v>
       </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>8</v>
@@ -2536,13 +2539,13 @@
         <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C22" t="s">
         <v>164</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -2557,13 +2560,13 @@
         <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2571,13 +2574,13 @@
         <v>123</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" t="s">
         <v>305</v>
-      </c>
-      <c r="D23" t="s">
-        <v>306</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -2589,13 +2592,13 @@
         <v>189</v>
       </c>
       <c r="H23" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" t="s">
         <v>307</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>8</v>
@@ -2606,13 +2609,13 @@
         <v>123</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>7</v>
@@ -2627,13 +2630,13 @@
         <v>81</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2641,13 +2644,13 @@
         <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -2662,13 +2665,13 @@
         <v>31</v>
       </c>
       <c r="I25" t="s">
+        <v>312</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2676,13 +2679,13 @@
         <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -2697,13 +2700,13 @@
         <v>56</v>
       </c>
       <c r="I26" t="s">
+        <v>315</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2711,13 +2714,13 @@
         <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -2732,13 +2735,13 @@
         <v>68</v>
       </c>
       <c r="I27" t="s">
+        <v>317</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2746,13 +2749,13 @@
         <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C28" t="s">
         <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -2767,13 +2770,13 @@
         <v>104</v>
       </c>
       <c r="I28" t="s">
+        <v>319</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2781,13 +2784,13 @@
         <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -2802,13 +2805,13 @@
         <v>128</v>
       </c>
       <c r="I29" t="s">
+        <v>322</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2816,13 +2819,13 @@
         <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
         <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -2837,13 +2840,13 @@
         <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2851,13 +2854,13 @@
         <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
         <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -2872,13 +2875,13 @@
         <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2886,13 +2889,13 @@
         <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
         <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -2907,13 +2910,13 @@
         <v>169</v>
       </c>
       <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2921,13 +2924,13 @@
         <v>123</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>7</v>
@@ -2942,13 +2945,13 @@
         <v>195</v>
       </c>
       <c r="I33" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2956,13 +2959,13 @@
         <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" t="s">
         <v>335</v>
-      </c>
-      <c r="D34" t="s">
-        <v>336</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -2974,10 +2977,10 @@
         <v>99</v>
       </c>
       <c r="H34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>150</v>
@@ -2988,31 +2991,31 @@
         <v>123</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" t="s">
         <v>338</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H35" t="s">
+        <v>340</v>
+      </c>
+      <c r="I35" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="I35" t="s">
-        <v>215</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3020,13 +3023,13 @@
         <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -3041,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>8</v>
@@ -3052,13 +3055,13 @@
         <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C37" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37" t="s">
         <v>344</v>
-      </c>
-      <c r="D37" t="s">
-        <v>345</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -3067,13 +3070,13 @@
         <v>33</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H37" t="s">
         <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>150</v>
@@ -3084,13 +3087,13 @@
         <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" t="s">
         <v>347</v>
-      </c>
-      <c r="D38" t="s">
-        <v>348</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -3105,10 +3108,10 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3116,13 +3119,13 @@
         <v>123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C39" t="s">
         <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -3137,10 +3140,10 @@
         <v>76</v>
       </c>
       <c r="I39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3148,13 +3151,13 @@
         <v>123</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C40" t="s">
         <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -3169,10 +3172,10 @@
         <v>84</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3180,13 +3183,13 @@
         <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -3201,10 +3204,10 @@
         <v>88</v>
       </c>
       <c r="I41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3212,28 +3215,28 @@
         <v>123</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C42" t="s">
+        <v>353</v>
+      </c>
+      <c r="D42" t="s">
         <v>354</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" t="s">
         <v>357</v>
       </c>
-      <c r="H42" t="s">
-        <v>358</v>
-      </c>
       <c r="I42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>8</v>
@@ -3244,31 +3247,31 @@
         <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D43" t="s">
         <v>359</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" t="s">
         <v>361</v>
       </c>
-      <c r="H43" t="s">
-        <v>362</v>
-      </c>
       <c r="I43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3276,13 +3279,13 @@
         <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C44" t="s">
+        <v>362</v>
+      </c>
+      <c r="D44" t="s">
         <v>363</v>
-      </c>
-      <c r="D44" t="s">
-        <v>364</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -3291,13 +3294,13 @@
         <v>125</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H44" t="s">
         <v>365</v>
       </c>
-      <c r="H44" t="s">
-        <v>366</v>
-      </c>
       <c r="I44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>9</v>
@@ -3308,13 +3311,13 @@
         <v>123</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C45" t="s">
         <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -3329,10 +3332,10 @@
         <v>109</v>
       </c>
       <c r="I45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3340,13 +3343,13 @@
         <v>123</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C46" t="s">
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -3361,10 +3364,10 @@
         <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3372,13 +3375,13 @@
         <v>123</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C47" t="s">
+        <v>368</v>
+      </c>
+      <c r="D47" t="s">
         <v>369</v>
-      </c>
-      <c r="D47" t="s">
-        <v>370</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -3393,10 +3396,10 @@
         <v>133</v>
       </c>
       <c r="I47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3404,13 +3407,13 @@
         <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C48" t="s">
         <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -3422,10 +3425,10 @@
         <v>137</v>
       </c>
       <c r="H48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>182</v>
@@ -3436,13 +3439,13 @@
         <v>123</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C49" t="s">
         <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -3457,10 +3460,10 @@
         <v>149</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3468,13 +3471,13 @@
         <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C50" t="s">
         <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -3489,7 +3492,7 @@
         <v>154</v>
       </c>
       <c r="I50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>8</v>
@@ -3500,13 +3503,13 @@
         <v>123</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
         <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -3521,10 +3524,10 @@
         <v>161</v>
       </c>
       <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3532,13 +3535,13 @@
         <v>123</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s">
         <v>198</v>
       </c>
       <c r="D52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -3553,10 +3556,10 @@
         <v>183</v>
       </c>
       <c r="I52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3564,13 +3567,13 @@
         <v>123</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C53" t="s">
         <v>185</v>
       </c>
       <c r="D53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -3582,13 +3585,13 @@
         <v>184</v>
       </c>
       <c r="H53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3596,13 +3599,13 @@
         <v>123</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>187</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>7</v>
@@ -3617,11 +3620,11 @@
         <v>188</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3629,13 +3632,13 @@
         <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C55" t="s">
         <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -3650,10 +3653,10 @@
         <v>60</v>
       </c>
       <c r="I55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3661,13 +3664,13 @@
         <v>123</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C56" t="s">
+        <v>384</v>
+      </c>
+      <c r="D56" t="s">
         <v>385</v>
-      </c>
-      <c r="D56" t="s">
-        <v>386</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -3676,13 +3679,13 @@
         <v>10</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H56" t="s">
         <v>387</v>
       </c>
-      <c r="H56" t="s">
-        <v>388</v>
-      </c>
       <c r="I56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>142</v>
@@ -3693,13 +3696,13 @@
         <v>123</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C57" t="s">
+        <v>388</v>
+      </c>
+      <c r="D57" t="s">
         <v>389</v>
-      </c>
-      <c r="D57" t="s">
-        <v>390</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -3708,16 +3711,16 @@
         <v>35</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H57" t="s">
         <v>391</v>
       </c>
-      <c r="H57" t="s">
-        <v>392</v>
-      </c>
       <c r="I57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3725,13 +3728,13 @@
         <v>123</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C58" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>7</v>
@@ -3740,13 +3743,13 @@
         <v>53</v>
       </c>
       <c r="G58" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>396</v>
-      </c>
       <c r="I58" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9" t="s">
@@ -3758,19 +3761,19 @@
         <v>93</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H59" t="s">
         <v>16</v>
@@ -3784,19 +3787,19 @@
         <v>93</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C60" t="s">
+        <v>406</v>
+      </c>
+      <c r="D60" t="s">
         <v>407</v>
       </c>
-      <c r="D60" t="s">
-        <v>408</v>
-      </c>
       <c r="F60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H60" t="s">
         <v>46</v>
@@ -3810,19 +3813,19 @@
         <v>93</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
         <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="H61" t="s">
         <v>117</v>
@@ -3836,22 +3839,22 @@
         <v>93</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D62" t="s">
         <v>411</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="F62" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" t="s">
         <v>413</v>
-      </c>
-      <c r="H62" t="s">
-        <v>414</v>
       </c>
       <c r="K62" s="1">
         <v>1997</v>
@@ -3862,13 +3865,13 @@
         <v>93</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C63" t="s">
+        <v>423</v>
+      </c>
+      <c r="D63" t="s">
         <v>424</v>
-      </c>
-      <c r="D63" t="s">
-        <v>425</v>
       </c>
       <c r="K63" s="2">
         <v>1978</v>
@@ -3879,16 +3882,16 @@
         <v>93</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C64" t="s">
+        <v>425</v>
+      </c>
+      <c r="D64" t="s">
         <v>426</v>
       </c>
-      <c r="D64" t="s">
+      <c r="G64" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="K64" s="2">
         <v>2011</v>
@@ -3899,19 +3902,16 @@
         <v>93</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C65" t="s">
         <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>429</v>
-      </c>
-      <c r="F65" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="H65" t="s">
         <v>145</v>
@@ -3925,22 +3925,19 @@
         <v>93</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C66" t="s">
+        <v>429</v>
+      </c>
+      <c r="D66" t="s">
         <v>430</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="H66" t="s">
         <v>432</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H66" t="s">
-        <v>433</v>
       </c>
       <c r="K66" s="2">
         <v>2006</v>
@@ -3951,19 +3948,19 @@
         <v>93</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H67" t="s">
         <v>46</v>
@@ -3978,19 +3975,19 @@
         <v>93</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C68" t="s">
         <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H68" t="s">
         <v>98</v>
@@ -3999,7 +3996,7 @@
         <v>2022</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -4007,19 +4004,19 @@
         <v>93</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C69" t="s">
         <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="H69" t="s">
         <v>113</v>
@@ -4028,7 +4025,7 @@
         <v>2006</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4036,19 +4033,19 @@
         <v>93</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>421</v>
-      </c>
       <c r="F70" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>120</v>
@@ -4058,7 +4055,7 @@
         <v>2004</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -4066,19 +4063,19 @@
         <v>42</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H71" t="s">
         <v>20</v>
@@ -4092,13 +4089,13 @@
         <v>42</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C72" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" t="s">
         <v>435</v>
-      </c>
-      <c r="D72" t="s">
-        <v>436</v>
       </c>
       <c r="K72" s="1">
         <v>1995</v>
@@ -4109,28 +4106,29 @@
         <v>42</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D73" t="s">
         <v>411</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="F73" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="K73" s="2">
         <v>1997</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L73" xr:uid="{17DADA14-99AB-4035-A091-FDCAA571E155}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/case01_extract_cn_airport/cn_airline.xlsx
+++ b/case01_extract_cn_airport/cn_airline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhouweifile\Github-Project\VeDa-Airport-Location\case01_extract_cn_airport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF3E5D7-98D1-430B-9E33-F815B60F780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07A595-4D52-4C53-9472-64BFF88323C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1764,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DBC132-4323-46A7-A08A-B106C22AF311}">
   <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1814,10 +1814,10 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
